--- a/data/576/SGSE/Straits Times Index - Weekly.xlsx
+++ b/data/576/SGSE/Straits Times Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CHY2"/>
+  <dimension ref="A1:CHZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11659,15 +11659,20 @@
       </c>
       <c r="CHW1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-09</t>
+        </is>
+      </c>
+      <c r="CHX1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CHX1" s="1" t="inlineStr">
+      <c r="CHY1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CHY1" s="1" t="inlineStr">
+      <c r="CHZ1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -18448,19 +18453,22 @@
         <v>3413.69</v>
       </c>
       <c r="CHV2" t="n">
-        <v>3442.61</v>
-      </c>
-      <c r="CHW2" t="inlineStr">
+        <v>3419.11</v>
+      </c>
+      <c r="CHW2" t="n">
+        <v>3445.01</v>
+      </c>
+      <c r="CHX2" t="inlineStr">
         <is>
           <t>STI</t>
         </is>
       </c>
-      <c r="CHX2" t="inlineStr">
+      <c r="CHY2" t="inlineStr">
         <is>
           <t>Straits Times Index, Close Price</t>
         </is>
       </c>
-      <c r="CHY2" t="inlineStr">
+      <c r="CHZ2" t="inlineStr">
         <is>
           <t>Index: 1966.12.31=100</t>
         </is>

--- a/data/576/SGSE/Straits Times Index - Weekly.xlsx
+++ b/data/576/SGSE/Straits Times Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CHZ2"/>
+  <dimension ref="A1:CIB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11664,15 +11664,25 @@
       </c>
       <c r="CHX1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="CHY1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-23</t>
+        </is>
+      </c>
+      <c r="CHZ1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CHY1" s="1" t="inlineStr">
+      <c r="CIA1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CHZ1" s="1" t="inlineStr">
+      <c r="CIB1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -18456,19 +18466,25 @@
         <v>3419.11</v>
       </c>
       <c r="CHW2" t="n">
-        <v>3445.01</v>
-      </c>
-      <c r="CHX2" t="inlineStr">
+        <v>3383.28</v>
+      </c>
+      <c r="CHX2" t="n">
+        <v>3335.85</v>
+      </c>
+      <c r="CHY2" t="n">
+        <v>3348.46</v>
+      </c>
+      <c r="CHZ2" t="inlineStr">
         <is>
           <t>STI</t>
         </is>
       </c>
-      <c r="CHY2" t="inlineStr">
+      <c r="CIA2" t="inlineStr">
         <is>
           <t>Straits Times Index, Close Price</t>
         </is>
       </c>
-      <c r="CHZ2" t="inlineStr">
+      <c r="CIB2" t="inlineStr">
         <is>
           <t>Index: 1966.12.31=100</t>
         </is>
